--- a/src/main/resources/excel/readloocup_template.xlsx
+++ b/src/main/resources/excel/readloocup_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382CDFB-2CD7-4095-A43F-66CCD1FC21D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5FAA9-30AF-4BD0-B927-5FE19AF25187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
@@ -50,11 +50,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="A4")</t>
+jx:area(lastCell="A6")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{BA5414CC-C49D-4976-8D49-E760A74C5124}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{4B625780-44E6-4C83-A5EB-AC8B55D80DA2}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>SirAlwaid:</t>
         </r>
@@ -71,11 +71,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="uigrid" var="items" lastCell="A4" direction="RIGHT")
-jx:each(items="items" var="String" lastCell="A4" direction="DOWN")</t>
+jx:each(items="grid.getTable()" var="table" lastCell="A5")
+jx:each(items="table" var="String" lastCell="A5" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,13 +154,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E2D85D-9821-44E9-A51E-F7E15C655787}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -478,8 +507,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/excel/readloocup_template.xlsx
+++ b/src/main/resources/excel/readloocup_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5FAA9-30AF-4BD0-B927-5FE19AF25187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E5EE3-7AE7-455D-9654-28DA0DE0D7B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/readloocup_template.xlsx
+++ b/src/main/resources/excel/readloocup_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E5EE3-7AE7-455D-9654-28DA0DE0D7B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE286E-3BB3-4C5F-9F1A-6B0F568D59D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
+    <workbookView xWindow="1710" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/readloocup_template.xlsx
+++ b/src/main/resources/excel/readloocup_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE286E-3BB3-4C5F-9F1A-6B0F568D59D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F767FE71-4D42-42E2-BB04-32D1A7D6A0EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
+    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/readloocup_template.xlsx
+++ b/src/main/resources/excel/readloocup_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F767FE71-4D42-42E2-BB04-32D1A7D6A0EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AF4F13-0D40-4BF9-8D5C-44F709F93BA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D048C21C-6F62-426E-A658-66B2421AE3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="grid.getTable()" var="table" lastCell="A5")
-jx:each(items="table" var="String" lastCell="A5" direction="RIGHT")</t>
+jx:each(items="grid.getTable()" var="table" lastCell="A5" direction="RIGHT")
+jx:each(items="table" var="String" lastCell="A5" direction="DOWN")</t>
         </r>
       </text>
     </comment>
@@ -494,7 +494,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/readloocup_template.xlsx
+++ b/src/main/resources/excel/readloocup_template.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B54FF336-81ED-418D-9137-0F2C4A68FF4E}">
